--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed5/result_data_RandomForest.xlsx
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.298500000000005</v>
+        <v>6.623500000000006</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.7721</v>
+        <v>-12.073</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>15.87460000000001</v>
+        <v>15.91080000000001</v>
       </c>
     </row>
     <row r="9">
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.0973</v>
+        <v>16.316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.61800000000001</v>
+        <v>-21.57870000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.287600000000002</v>
+        <v>6.309899999999995</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.7849</v>
+        <v>16.86160000000001</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.4899</v>
+        <v>16.44649999999999</v>
       </c>
     </row>
     <row r="16">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.858000000000004</v>
+        <v>3.783800000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.83709999999999</v>
+        <v>-12.89529999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.532400000000004</v>
+        <v>4.489000000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.24390000000001</v>
+        <v>-21.2119</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.176100000000003</v>
+        <v>9.37770000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.63409999999999</v>
+        <v>-19.6335</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.2747</v>
+        <v>16.01260000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.782600000000004</v>
+        <v>8.628</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.509</v>
+        <v>-19.5549</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.474</v>
+        <v>-13.43439999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.3503</v>
+        <v>5.5513</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.6099</v>
+        <v>-21.67619999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.81249999999999</v>
+        <v>-21.91489999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4265</v>
+        <v>-22.40330000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.036499999999995</v>
+        <v>4.973099999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.9514</v>
+        <v>-13.03379999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.3776</v>
+        <v>17.4139</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.47599999999998</v>
+        <v>-21.40909999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60109999999997</v>
+        <v>-21.58519999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.86479999999999</v>
+        <v>-22.05770000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.83339999999999</v>
+        <v>-13.50969999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1947,13 +1947,13 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.5965</v>
+        <v>-10.3887</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.35520000000001</v>
+        <v>17.42680000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.63599999999999</v>
+        <v>-21.67089999999999</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.1073</v>
+        <v>-11.47439999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.4349</v>
+        <v>-11.45269999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.12279999999999</v>
+        <v>-20.11859999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.894599999999999</v>
+        <v>4.9449</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.104100000000004</v>
+        <v>8.086200000000002</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.9582</v>
+        <v>-13.0501</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
